--- a/data/trans_dic/P02E$contratada-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P02E$contratada-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,43</t>
+          <t>0,0; 5,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,88</t>
+          <t>0,0; 3,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,71</t>
+          <t>1,91; 9,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,14</t>
+          <t>0,0; 3,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,35</t>
+          <t>0,69; 4,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,62</t>
+          <t>0,0; 3,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,18</t>
+          <t>0,29; 2,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,09</t>
+          <t>0,74; 3,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,62</t>
+          <t>1,13; 4,48</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,95</t>
+          <t>0,54; 6,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,1</t>
+          <t>0,32; 3,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>0,0; 3,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,05</t>
+          <t>0,95; 5,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,52</t>
+          <t>0,24; 2,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,36</t>
+          <t>0,58; 3,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,46</t>
+          <t>1,12; 4,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,19</t>
+          <t>0,39; 2,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,74</t>
+          <t>0,61; 2,79</t>
         </is>
       </c>
     </row>
@@ -910,42 +911,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,21</t>
+          <t>0,44; 5,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,55</t>
+          <t>0,0; 4,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,45</t>
+          <t>0,49; 4,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,93</t>
+          <t>0,6; 3,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 5,55</t>
+          <t>0,92; 5,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,66</t>
+          <t>0,3; 2,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,57</t>
+          <t>0,94; 3,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,1</t>
+          <t>1,01; 3,94</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,66</t>
+          <t>0,97; 5,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 5,5</t>
+          <t>0,74; 5,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,38</t>
+          <t>1,29; 5,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,32</t>
+          <t>0,37; 4,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 5,65</t>
+          <t>1,73; 5,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,42</t>
+          <t>1,34; 5,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,93</t>
+          <t>0,96; 3,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,49</t>
+          <t>1,73; 4,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,7</t>
+          <t>1,64; 4,78</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,38</t>
+          <t>0,84; 3,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,86</t>
+          <t>0,99; 2,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,67</t>
+          <t>1,37; 3,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,79</t>
+          <t>0,97; 2,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,7</t>
+          <t>1,22; 2,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,02</t>
+          <t>1,29; 3,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,65</t>
+          <t>1,1; 2,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,47</t>
+          <t>1,32; 2,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,92</t>
+          <t>1,56; 2,94</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con ayuda al cuidado por parte de, al menos, una persona externa contratada</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2216</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7085</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2331</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5674</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4392</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7890</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8935</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7376</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7866</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3068; 14513</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8103</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2056; 13112</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6360</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1027; 9798</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3669; 17105</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4028; 16011</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4696</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3832</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2624</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7328</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4191</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5444</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12024</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8023</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8068</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1058; 13325</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>969; 9581</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8840</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2913; 15367</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1102; 11703</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2069; 13312</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5641; 22582</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2960; 15811</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3639; 16647</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4848</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3148</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6025</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6526</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3148</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10873</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8626</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2008</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>975; 12275</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7438</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>977; 8643</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2113; 13531</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2336; 13466</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>971; 9485</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5413; 22374</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4222; 16478</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5805</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5809</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4918</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12729</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8720</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9217</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>18534</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>14528</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1656; 9985</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1933; 13828</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2516; 11424</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1051; 12007</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7028; 22073</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4044; 16632</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4359; 16990</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>11555; 29193</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>8159; 23739</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>11056</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16701</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17618</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17725</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>28619</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>22539</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28781</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>45320</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>40157</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5288; 20210</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9777; 27556</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10375; 27925</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9755; 28288</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>18523; 42096</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14305; 33665</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17969; 41980</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>33115; 61772</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>29124; 54874</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>